--- a/uploads/template_01032019.xlsx
+++ b/uploads/template_01032019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GrIDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322EADE-E901-40BB-9B57-9B0D2E5E3325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6407AA2B-C0FF-4476-A5D2-89D932E428F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="167">
   <si>
     <t>EDC - BINHI DATABASE PLANTATION ESTABLISHMENT REGISTRY - EXCEL TEMPLATE</t>
   </si>
@@ -802,9 +802,6 @@
     <t>SNGP</t>
   </si>
   <si>
-    <t>Dao</t>
-  </si>
-  <si>
     <t>2500</t>
   </si>
   <si>
@@ -833,6 +830,12 @@
   </si>
   <si>
     <t>Landslides, Typhoons.</t>
+  </si>
+  <si>
+    <t>Cacao</t>
+  </si>
+  <si>
+    <t>Coconut</t>
   </si>
 </sst>
 </file>
@@ -1546,462 +1549,462 @@
     <xf numFmtId="2" fontId="7" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent5" xfId="2" builtinId="45"/>
@@ -2344,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -2369,25 +2372,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="29.25" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
     </row>
     <row r="2" spans="1:18">
       <c r="C2"/>
@@ -2407,111 +2410,111 @@
       <c r="Q2" s="63"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="131" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="131">
+      <c r="E3" s="88">
         <v>2017</v>
       </c>
-      <c r="F3" s="131" t="s">
+      <c r="F3" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="133" t="s">
+      <c r="G3" s="89"/>
+      <c r="H3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
       <c r="O3" s="63"/>
       <c r="P3" s="63"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
       <c r="O4" s="63"/>
       <c r="P4" s="63"/>
       <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="80" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="106" t="s">
+      <c r="D5" s="122"/>
+      <c r="E5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="80" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="108" t="s">
+      <c r="H5" s="122"/>
+      <c r="I5" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="104" t="s">
+      <c r="J5" s="124"/>
+      <c r="K5" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
       <c r="O5" s="64"/>
       <c r="P5" s="64"/>
       <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="107"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="56"/>
       <c r="H6" s="58"/>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="104" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="116" t="s">
         <v>139</v>
       </c>
       <c r="O6" s="64"/>
@@ -2519,28 +2522,28 @@
       <c r="Q6" s="65"/>
     </row>
     <row r="7" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="113" t="s">
+      <c r="D7" s="117"/>
+      <c r="E7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="113"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="118"/>
+      <c r="G7" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
       <c r="Q7" s="65"/>
@@ -2556,54 +2559,54 @@
         <v>137</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="123" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="123"/>
-      <c r="N8" s="123"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
       <c r="O8" s="64"/>
       <c r="P8" s="64"/>
       <c r="Q8" s="65"/>
       <c r="R8" s="63"/>
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="118" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="118"/>
-      <c r="G9" s="121">
+      <c r="F9" s="100"/>
+      <c r="G9" s="114">
         <v>500000</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
       <c r="O9" s="74" t="s">
         <v>59</v>
       </c>
@@ -2612,28 +2615,28 @@
       <c r="R9" s="63"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="125"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="56"/>
       <c r="D10" s="59"/>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="123" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="123"/>
-      <c r="N10" s="123"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
       <c r="O10" s="75" t="s">
         <v>47</v>
       </c>
@@ -2642,28 +2645,28 @@
       <c r="R10" s="63"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="126"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="70" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="127" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="127"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
       <c r="O11" s="74" t="s">
         <v>71</v>
       </c>
@@ -2672,26 +2675,26 @@
       <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="127"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="127"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
       <c r="O12" s="74" t="s">
         <v>138</v>
       </c>
@@ -2700,22 +2703,22 @@
       <c r="R12" s="63"/>
     </row>
     <row r="13" spans="1:18" ht="21.75" customHeight="1">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
       <c r="O13" s="74" t="s">
         <v>139</v>
       </c>
@@ -2734,128 +2737,127 @@
       <c r="F14" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="138" t="s">
+      <c r="G14" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="98" t="s">
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="K14" s="98"/>
-      <c r="L14" s="97">
+      <c r="K14" s="106"/>
+      <c r="L14" s="127">
         <v>50</v>
       </c>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
       <c r="O14" s="62"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="65"/>
       <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1">
-      <c r="A15" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
+      <c r="A15" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="77">
         <v>1</v>
       </c>
       <c r="F15" s="77">
         <v>1</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="105">
         <f xml:space="preserve"> $L$14 *(1000/(E15*F15))</f>
         <v>50000</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
       <c r="O15" s="64"/>
       <c r="P15" s="64"/>
       <c r="Q15" s="65"/>
       <c r="R15" s="63"/>
     </row>
     <row r="16" spans="1:18" ht="15" customHeight="1">
-      <c r="A16" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
+      <c r="A16" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="77">
         <v>3</v>
       </c>
       <c r="F16" s="77">
         <v>3</v>
       </c>
-      <c r="G16" s="103">
-        <f xml:space="preserve"> $L$14 *(1000/(E16*F16))</f>
-        <v>5555.5555555555557</v>
-      </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99" t="s">
+      <c r="G16" s="105">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
       <c r="Q16" s="65"/>
       <c r="R16" s="63"/>
     </row>
     <row r="17" spans="1:18" ht="15" customHeight="1">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
       <c r="O17" s="64"/>
       <c r="P17" s="64"/>
       <c r="Q17" s="65"/>
       <c r="R17" s="63"/>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="77"/>
       <c r="F18" s="77"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="88" t="s">
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="88" t="s">
+      <c r="K18" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="88" t="s">
+      <c r="L18" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="88" t="s">
+      <c r="M18" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="N18" s="88" t="s">
+      <c r="N18" s="137" t="s">
         <v>139</v>
       </c>
       <c r="O18" s="64"/>
@@ -2864,122 +2866,122 @@
       <c r="R18" s="63"/>
     </row>
     <row r="19" spans="1:18" ht="15" customHeight="1">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
       <c r="Q19" s="65"/>
       <c r="R19" s="63"/>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="90" t="s">
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="92"/>
+      <c r="K20" s="140"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="141"/>
       <c r="O20" s="64"/>
       <c r="P20" s="64"/>
       <c r="Q20" s="65"/>
       <c r="R20" s="63"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="95"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="144"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="79" t="s">
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="79" t="s">
+      <c r="K22" s="122"/>
+      <c r="L22" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="80"/>
-      <c r="N22" s="81"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="122"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="84"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="87"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="136"/>
     </row>
     <row r="25" spans="1:18" ht="45.75" customHeight="1">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="118"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="66" t="s">
         <v>23</v>
@@ -2990,52 +2992,52 @@
       <c r="F25" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="128">
+      <c r="G25" s="107">
         <f>SUM(G15:I24)</f>
-        <v>55555.555555555555</v>
-      </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129" t="s">
+        <v>51000</v>
+      </c>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="78" t="s">
+      <c r="K25" s="146"/>
+      <c r="L25" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="129"/>
     </row>
     <row r="26" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A26" s="231" t="s">
+      <c r="A26" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="93"/>
+      <c r="C26" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="232" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="232"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="232"/>
-      <c r="L26" s="232"/>
-      <c r="M26" s="232"/>
-      <c r="N26" s="232"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1">
-      <c r="B27" s="226"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="62" t="s">
         <v>144</v>
       </c>
       <c r="F27" s="73"/>
       <c r="G27" s="62"/>
-      <c r="H27" s="233"/>
+      <c r="H27" s="83"/>
       <c r="I27" s="73" t="s">
         <v>52</v>
       </c>
@@ -3043,20 +3045,20 @@
       <c r="K27" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="227"/>
-      <c r="M27" s="227"/>
-      <c r="N27" s="227"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1">
-      <c r="B28" s="226"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="62" t="s">
         <v>145</v>
       </c>
       <c r="F28" s="73"/>
       <c r="G28" s="62"/>
-      <c r="H28" s="233"/>
+      <c r="H28" s="83"/>
       <c r="I28" s="73" t="s">
         <v>64</v>
       </c>
@@ -3064,20 +3066,20 @@
       <c r="K28" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1">
-      <c r="B29" s="226"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="62" t="s">
         <v>146</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
-      <c r="H29" s="233"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="62" t="s">
         <v>76</v>
       </c>
@@ -3085,20 +3087,20 @@
       <c r="K29" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="227"/>
-      <c r="M29" s="227"/>
-      <c r="N29" s="227"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1">
-      <c r="B30" s="226"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="62" t="s">
         <v>147</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
-      <c r="H30" s="233"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="62" t="s">
         <v>80</v>
       </c>
@@ -3106,20 +3108,20 @@
       <c r="K30" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="L30" s="227"/>
-      <c r="M30" s="227"/>
-      <c r="N30" s="227"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="B31" s="229"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="228"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="62" t="s">
         <v>148</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
-      <c r="H31" s="233"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="62" t="s">
         <v>138</v>
       </c>
@@ -3127,204 +3129,266 @@
       <c r="K31" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="L31" s="228"/>
-      <c r="M31" s="228"/>
-      <c r="N31" s="228"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1">
-      <c r="A32" s="229"/>
-      <c r="B32" s="229"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="228"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="62" t="s">
         <v>149</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="62"/>
-      <c r="H32" s="233"/>
+      <c r="H32" s="83"/>
       <c r="I32" s="62" t="s">
         <v>139</v>
       </c>
       <c r="J32" s="62"/>
       <c r="K32" s="62"/>
-      <c r="L32" s="228"/>
-      <c r="M32" s="228"/>
-      <c r="N32" s="228"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
-      <c r="A33" s="229"/>
-      <c r="B33" s="229"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="62" t="s">
         <v>150</v>
       </c>
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
-      <c r="H33" s="233"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="62"/>
       <c r="J33" s="62"/>
       <c r="K33" s="62"/>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
-      <c r="A34" s="229"/>
-      <c r="B34" s="229"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="228"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="62" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="62"/>
       <c r="G34" s="62"/>
-      <c r="H34" s="233"/>
+      <c r="H34" s="83"/>
       <c r="I34" s="62"/>
       <c r="J34" s="62"/>
       <c r="K34" s="62"/>
-      <c r="L34" s="228"/>
-      <c r="M34" s="228"/>
-      <c r="N34" s="228"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
-      <c r="A35" s="229"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="228"/>
-      <c r="D35" s="228"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="62" t="s">
         <v>134</v>
       </c>
       <c r="F35" s="62"/>
       <c r="G35" s="62"/>
-      <c r="H35" s="233"/>
+      <c r="H35" s="83"/>
       <c r="I35" s="62"/>
       <c r="J35" s="62"/>
       <c r="K35" s="62"/>
-      <c r="L35" s="228"/>
-      <c r="M35" s="228"/>
-      <c r="N35" s="228"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
-      <c r="A36" s="229"/>
-      <c r="B36" s="229"/>
-      <c r="C36" s="228"/>
-      <c r="D36" s="228"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="62" t="s">
         <v>152</v>
       </c>
       <c r="F36" s="62"/>
       <c r="G36" s="62"/>
-      <c r="H36" s="233"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="62"/>
       <c r="J36" s="62"/>
       <c r="K36" s="62"/>
-      <c r="L36" s="228"/>
-      <c r="M36" s="228"/>
-      <c r="N36" s="228"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
-      <c r="A37" s="229"/>
-      <c r="B37" s="229"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="228"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="62" t="s">
         <v>153</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="62"/>
-      <c r="H37" s="233"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="62"/>
       <c r="J37" s="62"/>
       <c r="K37" s="62"/>
-      <c r="L37" s="228"/>
-      <c r="M37" s="228"/>
-      <c r="N37" s="228"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1">
-      <c r="A38" s="229"/>
-      <c r="B38" s="229"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="228"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
       <c r="E38" s="62" t="s">
         <v>154</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="62"/>
-      <c r="H38" s="233"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="62"/>
       <c r="J38" s="62"/>
       <c r="K38" s="62"/>
-      <c r="L38" s="228"/>
-      <c r="M38" s="228"/>
-      <c r="N38" s="228"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1">
-      <c r="A39" s="229"/>
-      <c r="B39" s="229"/>
-      <c r="C39" s="228"/>
-      <c r="D39" s="228"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="62"/>
       <c r="F39" s="62"/>
       <c r="G39" s="62"/>
-      <c r="H39" s="233"/>
+      <c r="H39" s="83"/>
       <c r="I39" s="62"/>
       <c r="J39" s="62"/>
       <c r="K39" s="62"/>
-      <c r="L39" s="228"/>
-      <c r="M39" s="228"/>
-      <c r="N39" s="228"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1">
-      <c r="A40" s="229"/>
-      <c r="B40" s="229"/>
-      <c r="C40" s="228"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="228"/>
-      <c r="G40" s="228"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="228"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="228"/>
-      <c r="M40" s="228"/>
-      <c r="N40" s="228"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1">
-      <c r="A41" s="229"/>
-      <c r="B41" s="229"/>
-      <c r="C41" s="228"/>
-      <c r="D41" s="228"/>
-      <c r="E41" s="228"/>
-      <c r="F41" s="228"/>
-      <c r="G41" s="228"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="228"/>
-      <c r="J41" s="228"/>
-      <c r="K41" s="228"/>
-      <c r="L41" s="228"/>
-      <c r="M41" s="228"/>
-      <c r="N41" s="228"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="229"/>
-      <c r="B42" s="229"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="230"/>
-      <c r="I42" s="228"/>
-      <c r="J42" s="228"/>
-      <c r="K42" s="228"/>
-      <c r="L42" s="228"/>
-      <c r="M42" s="228"/>
-      <c r="N42" s="228"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L22:N24"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="J20:N21"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="J16:N17"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="I3:N4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="I6:J7"/>
     <mergeCell ref="F3:G4"/>
     <mergeCell ref="G14:I14"/>
@@ -3341,68 +3405,6 @@
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:N12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="I3:N4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="L14:N15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="J16:N17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L22:N24"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="J20:N21"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14" xr:uid="{48FED1C4-2EDC-4B18-BE8F-D449DA6D777D}">
@@ -3825,20 +3827,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="49" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
       <c r="D3" s="51" t="s">
         <v>105</v>
       </c>
@@ -3877,20 +3879,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="144"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="220"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
@@ -3909,56 +3911,56 @@
       <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="159" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="160"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="156"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="231"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="154"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="158"/>
+      <c r="A4" s="229"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="233"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="201"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1">
-      <c r="A5" s="145"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="106" t="s">
+      <c r="A5" s="221"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="224"/>
       <c r="I5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="148" t="s">
+      <c r="J5" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="150"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="225"/>
       <c r="M5" s="31"/>
       <c r="N5" s="32"/>
     </row>
@@ -3973,232 +3975,232 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="164"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="213"/>
       <c r="M6" s="31"/>
       <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="42.75" customHeight="1">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="166"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="216" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="167"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="217"/>
+      <c r="H7" s="217"/>
       <c r="I7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="158"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="201"/>
       <c r="M7" s="31"/>
       <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="185" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="187"/>
       <c r="M8" s="31"/>
       <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="194" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="180" t="s">
+      <c r="B9" s="195"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="180"/>
+      <c r="F9" s="197"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="192" t="s">
+      <c r="H9" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="193"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="174"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="191"/>
       <c r="M9" s="31"/>
       <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="174"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="191"/>
       <c r="M10" s="31"/>
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="180"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="158"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="201"/>
       <c r="M11" s="31"/>
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="180"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="90" t="s">
+      <c r="A12" s="196"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="194" t="s">
+      <c r="F12" s="140"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="195"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="174"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="180"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="174"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="191"/>
       <c r="M13" s="31"/>
       <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="181"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="174"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="191"/>
       <c r="M14" s="31"/>
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="202"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="178"/>
       <c r="M15" s="31"/>
       <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="216" t="s">
+      <c r="A16" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="11" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="159" t="s">
+      <c r="G16" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="203"/>
-      <c r="I16" s="160" t="s">
+      <c r="H16" s="162"/>
+      <c r="I16" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="208"/>
-      <c r="K16" s="208"/>
-      <c r="L16" s="209"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="184"/>
       <c r="M16" s="31"/>
       <c r="N16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A17" s="217"/>
-      <c r="B17" s="193"/>
+      <c r="A17" s="167"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
         <v>123</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="209"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="184"/>
       <c r="M17" s="31"/>
       <c r="N17" s="32"/>
     </row>
     <row r="18" spans="1:19" ht="15.75">
-      <c r="A18" s="218"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
         <v>124</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="215"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="208"/>
-      <c r="L18" s="209"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="184"/>
       <c r="M18" s="31"/>
       <c r="N18" s="32"/>
     </row>
@@ -4226,16 +4228,16 @@
       <c r="S19" s="34"/>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="180" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="206"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="207" t="s">
+      <c r="E20" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="206"/>
+      <c r="F20" s="181"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23" t="s">
         <v>128</v>
@@ -4250,16 +4252,16 @@
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="157" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="211"/>
+      <c r="B21" s="158"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="212" t="s">
+      <c r="E21" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="211"/>
+      <c r="F21" s="158"/>
       <c r="G21" s="25"/>
       <c r="H21" s="19" t="s">
         <v>116</v>
@@ -4274,15 +4276,15 @@
       <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:19" ht="34.5" customHeight="1">
-      <c r="A22" s="219" t="s">
+      <c r="A22" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="220"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="224"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="155"/>
       <c r="H22" s="26" t="s">
         <v>131</v>
       </c>
@@ -4296,12 +4298,12 @@
       <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="47"/>
@@ -4313,23 +4315,23 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="H12:I14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J16:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="I3:L4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:L7"/>
     <mergeCell ref="A8:L8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="J9:L9"/>
@@ -4346,23 +4348,23 @@
     <mergeCell ref="E9:F11"/>
     <mergeCell ref="E12:F14"/>
     <mergeCell ref="H9:I11"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="I3:L4"/>
-    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="H12:I14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J16:L18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
